--- a/config_7.6/fishbowl_config.xlsx
+++ b/config_7.6/fishbowl_config.xlsx
@@ -1531,10 +1531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1565,7 +1565,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,7 +1573,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,30 +1602,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1623,55 +1640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1686,16 +1657,45 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,7 +1763,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,7 +1823,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,19 +1853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,31 +1883,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,73 +1913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,26 +1962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2001,17 +1986,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2034,17 +2028,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,10 +2067,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2079,19 +2079,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2100,109 +2100,109 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2625,10 +2625,10 @@
   <sheetPr/>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3319,9 +3319,6 @@
       <c r="T10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
       <c r="V10">
         <v>3</v>
       </c>
@@ -3385,9 +3382,6 @@
       <c r="T11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
       <c r="V11">
         <v>3</v>
       </c>
@@ -3450,9 +3444,6 @@
       </c>
       <c r="T12" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
       </c>
       <c r="V12">
         <v>3</v>
@@ -4751,7 +4742,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -4778,7 +4769,7 @@
         <v>447</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4789,7 +4780,7 @@
         <v>448</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/config_7.6/fishbowl_config.xlsx
+++ b/config_7.6/fishbowl_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="653" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="653" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="fish|鱼配置" sheetId="5" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="move" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'award|奖励'!$C$1:$C$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'award|奖励'!$C$1:$C$94</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="449">
   <si>
     <t>id|鱼的ID</t>
   </si>
@@ -593,10 +593,88 @@
     <t>体态优美，身型匀称，童话世界中的精灵美人鱼。</t>
   </si>
   <si>
-    <t>3dby_icon_yu49</t>
-  </si>
-  <si>
-    <t>炽火龙王</t>
+    <t>3dby_icon_yu58</t>
+  </si>
+  <si>
+    <t>深海鲸</t>
+  </si>
+  <si>
+    <t>172800,172800,172800,0</t>
+  </si>
+  <si>
+    <t>50000,50000,50000,0</t>
+  </si>
+  <si>
+    <t>"巨量","巨量","巨量","巨量","巨量","巨量","巨量","巨量",</t>
+  </si>
+  <si>
+    <t>32,32,32,32</t>
+  </si>
+  <si>
+    <t>32,32,32,64</t>
+  </si>
+  <si>
+    <t>橙色彩贝、高级抽奖</t>
+  </si>
+  <si>
+    <t>体型巨大，晒太阳时总让人以为是座小岛，小鱼也喜欢躲在他肚子下乘凉。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>26,26,26,26</t>
+  </si>
+  <si>
+    <t>26,26,26,58</t>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+  </si>
+  <si>
+    <t>鲨鱼将军</t>
+  </si>
+  <si>
+    <t>27,27,27,27</t>
+  </si>
+  <si>
+    <t>27,27,27,59</t>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+  </si>
+  <si>
+    <t>72000,72000,72000,0</t>
+  </si>
+  <si>
+    <t>28,28,28,28</t>
+  </si>
+  <si>
+    <t>28,28,28,60</t>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+  </si>
+  <si>
+    <t>招财宝蟾</t>
   </si>
   <si>
     <t>86400,86400,86400,0</t>
@@ -605,78 +683,6 @@
     <t>10000,10000,10000,0</t>
   </si>
   <si>
-    <t>25,25,25,25</t>
-  </si>
-  <si>
-    <t>25,25,25,57</t>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-  </si>
-  <si>
-    <t>霸王蟹</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>26,26,26,26</t>
-  </si>
-  <si>
-    <t>26,26,26,58</t>
-  </si>
-  <si>
-    <t>橙色彩贝、高级抽奖</t>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-  </si>
-  <si>
-    <t>鲨鱼将军</t>
-  </si>
-  <si>
-    <t>27,27,27,27</t>
-  </si>
-  <si>
-    <t>27,27,27,59</t>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-  </si>
-  <si>
-    <t>72000,72000,72000,0</t>
-  </si>
-  <si>
-    <t>"巨量","巨量","巨量","巨量","巨量","巨量","巨量","巨量",</t>
-  </si>
-  <si>
-    <t>28,28,28,28</t>
-  </si>
-  <si>
-    <t>28,28,28,60</t>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-  </si>
-  <si>
-    <t>招财宝蟾</t>
-  </si>
-  <si>
     <t>29,29,29,29</t>
   </si>
   <si>
@@ -717,27 +723,6 @@
   </si>
   <si>
     <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-  </si>
-  <si>
-    <t>深海鲸</t>
-  </si>
-  <si>
-    <t>172800,172800,172800,0</t>
-  </si>
-  <si>
-    <t>50000,50000,50000,0</t>
-  </si>
-  <si>
-    <t>32,32,32,32</t>
-  </si>
-  <si>
-    <t>32,32,32,64</t>
-  </si>
-  <si>
-    <t>体型巨大，晒太阳时总让人以为是座小岛，小鱼也喜欢躲在他肚子下乘凉。</t>
   </si>
   <si>
     <r>
@@ -1088,13 +1073,13 @@
     <t>7500,8500</t>
   </si>
   <si>
-    <t>790000,890000</t>
-  </si>
-  <si>
-    <t>5100000,6100000</t>
-  </si>
-  <si>
-    <t>9000,19000</t>
+    <t>4300000,5300000</t>
+  </si>
+  <si>
+    <t>27000000,37000000</t>
+  </si>
+  <si>
+    <t>75000,85000</t>
   </si>
   <si>
     <t>472000,572000</t>
@@ -1140,15 +1125,6 @@
   </si>
   <si>
     <t>31000,41000</t>
-  </si>
-  <si>
-    <t>4300000,5300000</t>
-  </si>
-  <si>
-    <t>27000000,37000000</t>
-  </si>
-  <si>
-    <t>75000,85000</t>
   </si>
   <si>
     <t>sale_id|售卖奖励id</t>
@@ -1555,12 +1531,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1576,20 +1552,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1597,23 +1573,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1631,27 +1593,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1662,8 +1636,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1680,7 +1669,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1695,6 +1684,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1702,42 +1699,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1794,7 +1763,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,61 +1799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1872,43 +1829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,31 +1853,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,19 +1913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2038,45 +1977,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2091,8 +1991,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2115,8 +2030,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2128,10 +2067,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2140,19 +2079,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2161,118 +2100,118 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2282,77 +2221,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2361,7 +2299,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2690,7 +2628,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2782,16 +2720,16 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="30" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="5"/>
@@ -2800,19 +2738,19 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>0.8</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="3">
         <v>1</v>
       </c>
@@ -2822,10 +2760,10 @@
       <c r="I2" s="17">
         <v>10</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -2866,19 +2804,19 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>0.8</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="3">
         <v>1</v>
       </c>
@@ -2888,10 +2826,10 @@
       <c r="I3" s="17">
         <v>10</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -2932,19 +2870,19 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>0.8</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2954,10 +2892,10 @@
       <c r="I4" s="17">
         <v>10</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -2998,19 +2936,19 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>0.8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="3">
         <v>1</v>
       </c>
@@ -3020,10 +2958,10 @@
       <c r="I5" s="17">
         <v>10</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -3064,19 +3002,19 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>5</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>0.8</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="3">
         <v>1</v>
       </c>
@@ -3086,10 +3024,10 @@
       <c r="I6" s="17">
         <v>10</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -3130,19 +3068,19 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>7</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>0.8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="3">
         <v>1</v>
       </c>
@@ -3152,10 +3090,10 @@
       <c r="I7" s="17">
         <v>10</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -3196,19 +3134,19 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>8</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>0.8</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="3">
         <v>1</v>
       </c>
@@ -3218,10 +3156,10 @@
       <c r="I8" s="17">
         <v>10</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -3265,16 +3203,16 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>0.8</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="3">
         <v>2</v>
       </c>
@@ -3284,10 +3222,10 @@
       <c r="I9" s="18">
         <v>30</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -3311,13 +3249,13 @@
       <c r="R9" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="32" t="s">
+      <c r="T9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="32"/>
+      <c r="U9" s="31"/>
       <c r="V9">
         <v>3</v>
       </c>
@@ -3329,16 +3267,16 @@
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>0.8</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="3">
         <v>2</v>
       </c>
@@ -3348,10 +3286,10 @@
       <c r="I10" s="18">
         <v>30</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -3395,16 +3333,16 @@
       <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>0.8</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="3">
         <v>2</v>
       </c>
@@ -3414,10 +3352,10 @@
       <c r="I11" s="18">
         <v>30</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -3461,16 +3399,16 @@
       <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>0.8</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="3">
         <v>2</v>
       </c>
@@ -3480,10 +3418,10 @@
       <c r="I12" s="18">
         <v>30</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -3527,16 +3465,16 @@
       <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>0.8</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="3">
         <v>2</v>
       </c>
@@ -3546,10 +3484,10 @@
       <c r="I13" s="18">
         <v>30</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="5" t="s">
@@ -3590,16 +3528,16 @@
       <c r="B14" s="3">
         <v>17</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>0.6</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="3">
         <v>2</v>
       </c>
@@ -3609,10 +3547,10 @@
       <c r="I14" s="18">
         <v>30</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="5" t="s">
@@ -3653,16 +3591,16 @@
       <c r="B15" s="3">
         <v>18</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>0.6</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="3">
         <v>2</v>
       </c>
@@ -3672,10 +3610,10 @@
       <c r="I15" s="18">
         <v>30</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="5" t="s">
@@ -3716,7 +3654,7 @@
       <c r="B16" s="3">
         <v>20</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>0.6</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -3735,10 +3673,10 @@
       <c r="I16" s="19">
         <v>50</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -3779,7 +3717,7 @@
       <c r="B17" s="3">
         <v>21</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>0.6</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3798,10 +3736,10 @@
       <c r="I17" s="19">
         <v>50</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -3842,7 +3780,7 @@
       <c r="B18" s="3">
         <v>22</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>0.6</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -3861,10 +3799,10 @@
       <c r="I18" s="19">
         <v>50</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -3905,7 +3843,7 @@
       <c r="B19" s="3">
         <v>23</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>0.6</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -3924,10 +3862,10 @@
       <c r="I19" s="19">
         <v>50</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L19" s="5" t="s">
@@ -3968,7 +3906,7 @@
       <c r="B20" s="3">
         <v>24</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>0.6</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -3987,10 +3925,10 @@
       <c r="I20" s="19">
         <v>50</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -4031,7 +3969,7 @@
       <c r="B21" s="3">
         <v>25</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>0.6</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -4050,10 +3988,10 @@
       <c r="I21" s="19">
         <v>50</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -4094,7 +4032,7 @@
       <c r="B22" s="3">
         <v>26</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>0.6</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -4113,10 +4051,10 @@
       <c r="I22" s="19">
         <v>50</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="5" t="s">
@@ -4157,7 +4095,7 @@
       <c r="B23" s="3">
         <v>27</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>0.6</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -4176,10 +4114,10 @@
       <c r="I23" s="19">
         <v>50</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="5" t="s">
@@ -4217,19 +4155,19 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>28</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>0.6</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="3">
         <v>4</v>
       </c>
@@ -4239,10 +4177,10 @@
       <c r="I24" s="20">
         <v>80</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="5" t="s">
@@ -4280,19 +4218,19 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>33</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>0.6</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="3">
         <v>4</v>
       </c>
@@ -4302,10 +4240,10 @@
       <c r="I25" s="20">
         <v>80</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="29" t="s">
+      <c r="K25" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -4339,43 +4277,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" customFormat="1" spans="1:22">
       <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="25">
-        <v>36</v>
-      </c>
-      <c r="C26" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="D26" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
+        <v>40</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="3">
-        <v>4</v>
-      </c>
-      <c r="H26" s="20">
+        <v>5</v>
+      </c>
+      <c r="H26" s="21">
         <v>1</v>
       </c>
-      <c r="I26" s="20">
-        <v>80</v>
-      </c>
-      <c r="J26" s="28" t="s">
+      <c r="I26" s="21">
+        <v>100</v>
+      </c>
+      <c r="J26" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>185</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>171</v>
@@ -4384,16 +4322,16 @@
         <v>29</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="R26" s="20" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="S26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>34</v>
@@ -4409,14 +4347,14 @@
       <c r="B27" s="3">
         <v>39</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>0.4</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="3">
@@ -4428,10 +4366,10 @@
       <c r="I27" s="21">
         <v>100</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -4441,22 +4379,22 @@
         <v>170</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R27" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>34</v>
@@ -4472,14 +4410,14 @@
       <c r="B28" s="3">
         <v>41</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>0.4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="3">
@@ -4491,10 +4429,10 @@
       <c r="I28" s="21">
         <v>100</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="5" t="s">
@@ -4504,22 +4442,22 @@
         <v>170</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>34</v>
@@ -4535,14 +4473,14 @@
       <c r="B29" s="3">
         <v>43</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>0.4</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="3">
@@ -4554,20 +4492,20 @@
       <c r="I29" s="21">
         <v>100</v>
       </c>
-      <c r="J29" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="K29" s="29" t="s">
+      <c r="J29" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>178</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>29</v>
@@ -4579,7 +4517,7 @@
         <v>206</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S29" t="s">
         <v>207</v>
@@ -4598,7 +4536,7 @@
       <c r="B30" s="3">
         <v>46</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <v>0.4</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -4617,35 +4555,35 @@
       <c r="I30" s="21">
         <v>100</v>
       </c>
-      <c r="J30" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="29" t="s">
+      <c r="J30" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R30" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>34</v>
@@ -4661,14 +4599,14 @@
       <c r="B31" s="3">
         <v>47</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>0.4</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="3">
@@ -4680,17 +4618,17 @@
       <c r="I31" s="21">
         <v>100</v>
       </c>
-      <c r="J31" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="K31" s="29" t="s">
+      <c r="J31" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>178</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>171</v>
@@ -4699,16 +4637,16 @@
         <v>29</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>34</v>
@@ -4724,14 +4662,14 @@
       <c r="B32" s="4">
         <v>48</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>0.4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G32" s="3">
         <v>5</v>
@@ -4742,35 +4680,35 @@
       <c r="I32" s="21">
         <v>100</v>
       </c>
-      <c r="J32" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" s="29" t="s">
+      <c r="J32" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="28" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R32" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="T32" s="5" t="s">
         <v>34</v>
@@ -4779,68 +4717,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
-        <v>40</v>
-      </c>
-      <c r="C33" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>225</v>
-      </c>
+    <row r="33" spans="1:20">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="3">
-        <v>5</v>
-      </c>
-      <c r="H33" s="21">
-        <v>1</v>
-      </c>
-      <c r="I33" s="21">
-        <v>100</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="K33" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="R33" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="S33" t="s">
-        <v>230</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="21"/>
+      <c r="S33"/>
+      <c r="T33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4854,8 +4751,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -4865,13 +4762,13 @@
   <sheetData>
     <row r="1" ht="27" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4879,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -4890,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -4907,8 +4804,8 @@
   <sheetPr/>
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4919,16 +4816,16 @@
   <sheetData>
     <row r="1" ht="40.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4939,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4953,10 +4850,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4967,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4982,10 +4879,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4997,10 +4894,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5012,10 +4909,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>243</v>
+        <v>234</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5027,10 +4924,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5042,10 +4939,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5057,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5072,10 +4969,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5087,10 +4984,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5102,10 +4999,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>249</v>
+        <v>234</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5117,10 +5014,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5132,10 +5029,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5147,10 +5044,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>252</v>
+        <v>234</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5162,10 +5059,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5177,10 +5074,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5192,10 +5089,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5207,10 +5104,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5222,10 +5119,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5237,10 +5134,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5252,10 +5149,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -5267,10 +5164,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -5283,10 +5180,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -5299,10 +5196,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5314,10 +5211,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5329,10 +5226,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5344,10 +5241,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5359,10 +5256,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5374,10 +5271,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5389,10 +5286,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5404,10 +5301,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5419,10 +5316,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5434,10 +5331,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5449,10 +5346,10 @@
         <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5464,10 +5361,10 @@
         <v>12</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5479,10 +5376,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5494,10 +5391,10 @@
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5509,10 +5406,10 @@
         <v>13</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5524,10 +5421,10 @@
         <v>14</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5539,10 +5436,10 @@
         <v>14</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5554,10 +5451,10 @@
         <v>14</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5569,10 +5466,10 @@
         <v>15</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5584,10 +5481,10 @@
         <v>15</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5599,10 +5496,10 @@
         <v>15</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5614,10 +5511,10 @@
         <v>16</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5629,10 +5526,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5644,10 +5541,10 @@
         <v>16</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5659,10 +5556,10 @@
         <v>17</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5674,10 +5571,10 @@
         <v>17</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5689,10 +5586,10 @@
         <v>17</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5704,10 +5601,10 @@
         <v>18</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5719,10 +5616,10 @@
         <v>18</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5734,10 +5631,10 @@
         <v>18</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5749,10 +5646,10 @@
         <v>19</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5764,10 +5661,10 @@
         <v>19</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5779,10 +5676,10 @@
         <v>19</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5794,10 +5691,10 @@
         <v>20</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5809,10 +5706,10 @@
         <v>20</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5824,10 +5721,10 @@
         <v>20</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5839,10 +5736,10 @@
         <v>21</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5854,10 +5751,10 @@
         <v>21</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5869,10 +5766,10 @@
         <v>21</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5884,10 +5781,10 @@
         <v>22</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5899,10 +5796,10 @@
         <v>22</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5914,10 +5811,10 @@
         <v>22</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5929,10 +5826,10 @@
         <v>23</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5944,10 +5841,10 @@
         <v>23</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5959,10 +5856,10 @@
         <v>23</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5974,10 +5871,10 @@
         <v>24</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5989,10 +5886,10 @@
         <v>24</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6004,10 +5901,10 @@
         <v>24</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6019,10 +5916,10 @@
         <v>25</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6034,10 +5931,10 @@
         <v>25</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6049,10 +5946,10 @@
         <v>25</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>305</v>
+        <v>234</v>
+      </c>
+      <c r="D76" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6064,10 +5961,10 @@
         <v>26</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6079,10 +5976,10 @@
         <v>26</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6094,10 +5991,10 @@
         <v>26</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6109,10 +6006,10 @@
         <v>27</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6124,10 +6021,10 @@
         <v>27</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6139,10 +6036,10 @@
         <v>27</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6154,10 +6051,10 @@
         <v>28</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -6169,10 +6066,10 @@
         <v>28</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -6184,10 +6081,10 @@
         <v>28</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -6199,10 +6096,10 @@
         <v>29</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6214,10 +6111,10 @@
         <v>29</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6229,10 +6126,10 @@
         <v>29</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -6244,10 +6141,10 @@
         <v>30</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6259,10 +6156,10 @@
         <v>30</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6274,10 +6171,10 @@
         <v>30</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6289,10 +6186,10 @@
         <v>31</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6304,10 +6201,10 @@
         <v>31</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6319,59 +6216,23 @@
         <v>31</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" s="5">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" s="5">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D97" t="s">
-        <v>323</v>
-      </c>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C97">
+  <autoFilter ref="C1:C94">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6385,8 +6246,8 @@
   <sheetPr/>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6397,19 +6258,19 @@
   <sheetData>
     <row r="1" ht="40.5" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6420,13 +6281,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D2" s="16">
         <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6437,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D3" s="16">
         <v>200</v>
@@ -6455,7 +6316,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" s="16">
         <v>300</v>
@@ -6473,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D5" s="16">
         <v>500</v>
@@ -6491,7 +6352,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D6" s="4">
         <v>600</v>
@@ -6509,7 +6370,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D7" s="4">
         <v>800</v>
@@ -6527,7 +6388,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D8" s="4">
         <v>1000</v>
@@ -6545,7 +6406,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D9" s="4">
         <v>5000</v>
@@ -6563,7 +6424,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D10" s="4">
         <v>8000</v>
@@ -6581,7 +6442,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D11" s="4">
         <v>10000</v>
@@ -6599,7 +6460,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D12" s="4">
         <v>30000</v>
@@ -6617,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D13" s="4">
         <v>50000</v>
@@ -6635,7 +6496,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D14" s="4">
         <v>80000</v>
@@ -6653,7 +6514,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D15" s="4">
         <v>100000</v>
@@ -6671,7 +6532,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D16" s="4">
         <v>80000</v>
@@ -6689,7 +6550,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D17" s="4">
         <v>100000</v>
@@ -6707,7 +6568,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D18" s="4">
         <v>150000</v>
@@ -6725,7 +6586,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D19" s="4">
         <v>200000</v>
@@ -6743,7 +6604,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D20" s="4">
         <v>300000</v>
@@ -6761,7 +6622,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D21" s="4">
         <v>500000</v>
@@ -6779,7 +6640,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D22" s="4">
         <v>300000</v>
@@ -6797,7 +6658,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D23" s="4">
         <v>500000</v>
@@ -6815,7 +6676,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D24" s="4">
         <v>300000</v>
@@ -6833,7 +6694,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D25" s="4">
         <v>500000</v>
@@ -6851,7 +6712,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D26" s="4">
         <v>800000</v>
@@ -6869,7 +6730,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D27" s="4">
         <v>500000</v>
@@ -6887,7 +6748,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D28" s="4">
         <v>800000</v>
@@ -6905,7 +6766,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D29" s="4">
         <v>1000000</v>
@@ -6923,7 +6784,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D30" s="4">
         <v>1000000</v>
@@ -6941,7 +6802,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D31" s="4">
         <v>1500000</v>
@@ -6959,7 +6820,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D32" s="4">
         <v>2000000</v>
@@ -6977,7 +6838,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D33" s="4">
         <v>5000000</v>
@@ -6995,7 +6856,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D34" s="4">
         <v>1000</v>
@@ -7013,7 +6874,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D35" s="4">
         <v>2600</v>
@@ -7027,7 +6888,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D36" s="4">
         <v>3600</v>
@@ -7041,7 +6902,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D37" s="4">
         <v>4400</v>
@@ -7055,7 +6916,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D38" s="4">
         <v>6240</v>
@@ -7069,7 +6930,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D39" s="4">
         <v>7040</v>
@@ -7083,7 +6944,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D40" s="4">
         <v>7840</v>
@@ -7097,7 +6958,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D41" s="4">
         <v>24000</v>
@@ -7111,7 +6972,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D42" s="4">
         <v>36000</v>
@@ -7125,7 +6986,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D43" s="4">
         <v>44000</v>
@@ -7139,7 +7000,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D44" s="4">
         <v>132000</v>
@@ -7153,7 +7014,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D45" s="4">
         <v>212000</v>
@@ -7167,7 +7028,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D46" s="4">
         <v>340000</v>
@@ -7181,7 +7042,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D47" s="4">
         <v>420000</v>
@@ -7195,7 +7056,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D48" s="4">
         <v>352000</v>
@@ -7209,7 +7070,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D49" s="4">
         <v>464000</v>
@@ -7223,7 +7084,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D50" s="4">
         <v>664000</v>
@@ -7237,7 +7098,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D51" s="4">
         <v>960000</v>
@@ -7251,7 +7112,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D52" s="4">
         <v>1520000</v>
@@ -7265,7 +7126,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D53" s="4">
         <v>2320000</v>
@@ -7279,7 +7140,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D54" s="4">
         <v>1520000</v>
@@ -7293,7 +7154,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D55" s="4">
         <v>2320000</v>
@@ -7307,7 +7168,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D56" s="4">
         <v>1680000</v>
@@ -7321,7 +7182,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D57" s="4">
         <v>3200000</v>
@@ -7335,7 +7196,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D58" s="4">
         <v>5600000</v>
@@ -7349,7 +7210,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D59" s="4">
         <v>2320000</v>
@@ -7363,7 +7224,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D60" s="4">
         <v>4000000</v>
@@ -7377,7 +7238,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D61" s="4">
         <v>4800000</v>
@@ -7391,7 +7252,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D62" s="4">
         <v>5600000</v>
@@ -7405,7 +7266,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D63" s="4">
         <v>7200000</v>
@@ -7419,7 +7280,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D64" s="4">
         <v>9600000</v>
@@ -7433,7 +7294,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D65" s="4">
         <v>32000000</v>
@@ -7447,7 +7308,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D66" s="16">
         <v>100</v>
@@ -7464,7 +7325,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D67" s="16">
         <v>200</v>
@@ -7481,7 +7342,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D68" s="16">
         <v>300</v>
@@ -7498,7 +7359,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D69" s="16">
         <v>500</v>
@@ -7515,7 +7376,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D70" s="4">
         <v>600</v>
@@ -7532,7 +7393,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D71" s="4">
         <v>800</v>
@@ -7549,7 +7410,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D72" s="4">
         <v>1000</v>
@@ -7566,7 +7427,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D73" s="4">
         <v>1666</v>
@@ -7583,7 +7444,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D74" s="4">
         <v>2666</v>
@@ -7600,7 +7461,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D75" s="4">
         <v>3333</v>
@@ -7617,7 +7478,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D76" s="4">
         <v>10000</v>
@@ -7634,7 +7495,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D77" s="4">
         <v>16666</v>
@@ -7651,7 +7512,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D78" s="4">
         <v>26666</v>
@@ -7668,7 +7529,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D79" s="4">
         <v>33333</v>
@@ -7685,7 +7546,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D80" s="4">
         <v>16000</v>
@@ -7702,7 +7563,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D81" s="4">
         <v>20000</v>
@@ -7719,7 +7580,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D82" s="4">
         <v>30000</v>
@@ -7736,7 +7597,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D83" s="4">
         <v>40000</v>
@@ -7753,7 +7614,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D84" s="4">
         <v>60000</v>
@@ -7770,7 +7631,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D85" s="4">
         <v>100000</v>
@@ -7787,7 +7648,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D86" s="4">
         <v>60000</v>
@@ -7804,7 +7665,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D87" s="4">
         <v>100000</v>
@@ -7821,7 +7682,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D88" s="4">
         <v>37500</v>
@@ -7838,7 +7699,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D89" s="4">
         <v>62500</v>
@@ -7855,7 +7716,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D90" s="4">
         <v>100000</v>
@@ -7872,7 +7733,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D91" s="4">
         <v>50000</v>
@@ -7889,7 +7750,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D92" s="4">
         <v>80000</v>
@@ -7906,7 +7767,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D93" s="4">
         <v>100000</v>
@@ -7923,7 +7784,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D94" s="4">
         <v>100000</v>
@@ -7940,7 +7801,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D95" s="4">
         <v>150000</v>
@@ -7957,7 +7818,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D96" s="4">
         <v>200000</v>
@@ -7974,7 +7835,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D97" s="4">
         <v>500000</v>
@@ -7994,7 +7855,7 @@
   <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -8010,19 +7871,19 @@
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:6">
       <c r="A1" s="14" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8033,7 +7894,7 @@
         <v>10000</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -8054,7 +7915,7 @@
         <v>20000</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -8072,7 +7933,7 @@
         <v>50000</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -8090,7 +7951,7 @@
         <v>150000</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -8111,7 +7972,7 @@
         <v>300000</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D6" s="5">
         <v>9</v>
@@ -8129,7 +7990,7 @@
         <v>99999999999</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -8174,8 +8035,8 @@
   <sheetPr/>
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -8187,13 +8048,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8201,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8212,7 +8073,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -8223,7 +8084,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -8234,7 +8095,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -8245,7 +8106,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -8256,7 +8117,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -8267,7 +8128,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -8278,7 +8139,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -8289,7 +8150,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -8300,7 +8161,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -8311,7 +8172,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -8322,7 +8183,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -8333,7 +8194,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -8344,7 +8205,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -8355,7 +8216,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -8366,7 +8227,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -8377,7 +8238,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -8388,7 +8249,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -8399,7 +8260,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -8410,7 +8271,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -8421,7 +8282,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -8432,7 +8293,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -8443,7 +8304,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -8454,7 +8315,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -8465,10 +8326,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8476,7 +8337,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -8487,7 +8348,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -8498,7 +8359,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -8509,7 +8370,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -8520,7 +8381,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -8531,7 +8392,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -8542,7 +8403,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C33">
         <f>C2+64</f>
@@ -8554,7 +8415,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C63" si="0">C3+64</f>
@@ -8566,7 +8427,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -8578,7 +8439,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -8590,7 +8451,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -8602,7 +8463,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -8614,7 +8475,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -8626,7 +8487,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -8638,7 +8499,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -8650,7 +8511,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -8662,7 +8523,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -8674,7 +8535,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -8686,7 +8547,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -8698,7 +8559,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -8710,7 +8571,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -8722,7 +8583,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -8734,7 +8595,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -8746,7 +8607,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -8758,7 +8619,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -8770,7 +8631,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -8782,7 +8643,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -8794,7 +8655,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -8806,7 +8667,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -8818,7 +8679,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -8830,11 +8691,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8842,7 +8703,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -8854,7 +8715,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -8866,7 +8727,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -8878,7 +8739,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -8890,7 +8751,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -8902,7 +8763,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -8914,7 +8775,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C64">
         <f>C2+32</f>
@@ -8926,7 +8787,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C65">
         <f t="shared" ref="C65:C94" si="1">C3+32</f>
@@ -8938,7 +8799,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -8950,7 +8811,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -8962,7 +8823,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -8974,7 +8835,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
@@ -8986,7 +8847,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
@@ -8998,7 +8859,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
@@ -9010,7 +8871,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
@@ -9022,7 +8883,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
@@ -9034,7 +8895,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
@@ -9046,7 +8907,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
@@ -9058,7 +8919,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
@@ -9070,7 +8931,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
@@ -9082,7 +8943,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
@@ -9094,7 +8955,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
@@ -9106,7 +8967,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
@@ -9118,7 +8979,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
@@ -9130,7 +8991,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
@@ -9142,7 +9003,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -9154,7 +9015,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
@@ -9166,7 +9027,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
@@ -9178,7 +9039,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
@@ -9190,7 +9051,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
@@ -9202,11 +9063,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -9214,7 +9075,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -9226,7 +9087,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
@@ -9238,7 +9099,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
@@ -9250,7 +9111,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
@@ -9262,7 +9123,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
@@ -9274,7 +9135,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
@@ -9304,13 +9165,13 @@
   <sheetData>
     <row r="1" ht="27" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9321,7 +9182,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9332,7 +9193,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9343,7 +9204,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9354,7 +9215,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -9380,16 +9241,16 @@
   <sheetData>
     <row r="1" ht="27" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9456,16 +9317,16 @@
   <sheetData>
     <row r="1" ht="40.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9476,7 +9337,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D2" s="8">
         <v>100000</v>
@@ -9490,7 +9351,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D3" s="8">
         <v>180000</v>
@@ -9504,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" s="4">
         <v>300000</v>
@@ -9533,25 +9394,25 @@
   <sheetData>
     <row r="1" ht="40.5" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9566,13 +9427,13 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/config_7.6/fishbowl_config.xlsx
+++ b/config_7.6/fishbowl_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="653" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="fish|鱼配置" sheetId="5" r:id="rId1"/>
@@ -1531,10 +1531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1565,29 +1565,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1602,15 +1580,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,13 +1624,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1644,24 +1661,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1676,6 +1678,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1685,25 +1695,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1763,13 +1763,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,19 +1799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,13 +1829,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,55 +1901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1883,37 +1913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,20 +1979,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2012,17 +2031,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2038,24 +2051,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,10 +2067,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2079,137 +2079,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2625,10 +2625,10 @@
   <sheetPr/>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:22">
       <c r="A26" s="3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>40</v>
@@ -4736,7 +4736,6 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="21"/>
-      <c r="S33"/>
       <c r="T33" s="5"/>
     </row>
   </sheetData>
@@ -4751,8 +4750,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
